--- a/python_tools/src/图鉴对应翻译表手动调整.xlsx
+++ b/python_tools/src/图鉴对应翻译表手动调整.xlsx
@@ -2169,19 +2169,19 @@
     <t>瞄准猎物后就会笔直冲撞过去。\n因其暴躁的性格而闻名。</t>
   </si>
   <si>
-    <t>SPECIES_TAUROS_PALDEA_COMBAT_BREED</t>
+    <t>SPECIES_TAUROS_PALDEA_COMBAT</t>
   </si>
   <si>
     <t>特征是厚实有力的肌肉\n以及粗鲁暴躁的性格。\n这种样子被称为斗战种。</t>
   </si>
   <si>
-    <t>SPECIES_TAUROS_PALDEA_BLAZE_BREED</t>
+    <t>SPECIES_TAUROS_PALDEA_BLAZE</t>
   </si>
   <si>
     <t>会喷出高温的鼻息，\n因此被命名为火炽种。\n3根尾巴总是拧在一起。</t>
   </si>
   <si>
-    <t>SPECIES_TAUROS_PALDEA_AQUA_BREED</t>
+    <t>SPECIES_TAUROS_PALDEA_AQUA</t>
   </si>
   <si>
     <t>会从角喷出水来游泳。\n因脂肪含量高而容易浮在水面上，\n这是水澜种的特征。</t>
@@ -2265,7 +2265,7 @@
     <t>性格变得更加天真无邪。\n不管遇到谁都会扑上去玩耍，\n但巨大的身体往往会把对方压垮。</t>
   </si>
   <si>
-    <t>SPECIES_EEVEE_PARTNER</t>
+    <t>SPECIES_EEVEE_STARTER</t>
   </si>
   <si>
     <t>SPECIES_VAPOREON</t>
@@ -13080,7 +13080,7 @@
     <t>生活在陡峭的悬崖上。\n会通过侧步来闪避攻击，\n然后用钳子瞄准对手的要害。</t>
   </si>
   <si>
-    <t>SPECIESSAKID</t>
+    <t>SPECIES_SAKID</t>
   </si>
   <si>
     <t>热辣娃</t>
@@ -14890,13 +14890,12 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="42" customWidth="1"/>
-    <col min="2" max="2" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
